--- a/Excel程序/circuit.xlsx
+++ b/Excel程序/circuit.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\powerloss\Excel程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F908A77A-10AA-4230-BB1B-49B563A68F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CC071-BEC4-4063-A69A-8E3040ADBB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LINECODE" sheetId="1" r:id="rId1"/>
-    <sheet name="LINE" sheetId="2" r:id="rId2"/>
+    <sheet name="线路型号" sheetId="1" r:id="rId1"/>
+    <sheet name="配电线路" sheetId="2" r:id="rId2"/>
+    <sheet name="非opendss元件" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>导线型号</t>
   </si>
@@ -48,58 +49,110 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>L1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus21</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>L5</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus22</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub10kVBus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>线路长度(km)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>L1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus21</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>L5</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus22</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub10kVBus</t>
+    <t>LGJ-16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-25</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-35</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-70</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-95</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-120</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-150</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-185</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-240</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-300</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-400</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGJ-70</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -1113,10 +1166,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1132,8 +1187,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>16</v>
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2">
         <v>2.04</v>
@@ -1143,8 +1198,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>25</v>
+      <c r="A3" t="s">
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1.38</v>
@@ -1154,8 +1209,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>35</v>
+      <c r="A4" t="s">
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0.85</v>
@@ -1165,8 +1220,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>50</v>
+      <c r="A5" t="s">
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0.65</v>
@@ -1176,8 +1231,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>70</v>
+      <c r="A6" t="s">
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0.45</v>
@@ -1187,8 +1242,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>95</v>
+      <c r="A7" t="s">
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0.33</v>
@@ -1198,8 +1253,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>120</v>
+      <c r="A8" t="s">
+        <v>25</v>
       </c>
       <c r="B8">
         <v>0.27</v>
@@ -1209,8 +1264,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>150</v>
+      <c r="A9" t="s">
+        <v>26</v>
       </c>
       <c r="B9">
         <v>0.21</v>
@@ -1220,8 +1275,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>185</v>
+      <c r="A10" t="s">
+        <v>27</v>
       </c>
       <c r="B10">
         <v>0.17</v>
@@ -1231,8 +1286,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>240</v>
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
       <c r="B11">
         <v>0.13200000000000001</v>
@@ -1242,8 +1297,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>300</v>
+      <c r="A12" t="s">
+        <v>29</v>
       </c>
       <c r="B12">
         <v>0.107</v>
@@ -1253,8 +1308,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>400</v>
+      <c r="A13" t="s">
+        <v>30</v>
       </c>
       <c r="B13">
         <v>0.08</v>
@@ -1266,15 +1321,16 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,21 +1352,21 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>70</v>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="4">
         <v>0.8</v>
@@ -1318,16 +1374,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>70</v>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E3" s="4">
         <v>0.7</v>
@@ -1335,16 +1391,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
-        <v>70</v>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1352,39 +1408,53 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4">
-        <v>70</v>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
-        <v>70</v>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AB9C3A-4925-414F-BBF0-F5BD4BC2FDF4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
